--- a/biology/Zoologie/Chiromantis_rufescens/Chiromantis_rufescens.xlsx
+++ b/biology/Zoologie/Chiromantis_rufescens/Chiromantis_rufescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiromantis rufescens est une espèce d'amphibiens de la famille des Rhacophoridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiromantis rufescens est une espèce d'amphibiens de la famille des Rhacophoridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre  au Liberia, au Cameroun, en Côte d'Ivoire, au Gabon, au Ghana, en Guinée, en Guinée équatoriale, au Nigeria, en Ouganda, en République centrafricaine, en République démocratique du Congo, en République du Congo et en Sierra Leone[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre  au Liberia, au Cameroun, en Côte d'Ivoire, au Gabon, au Ghana, en Guinée, en Guinée équatoriale, au Nigeria, en Ouganda, en République centrafricaine, en République démocratique du Congo, en République du Congo et en Sierra Leone.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Chiromantis rufescens mesure de 44 à 49 mm pour les mâles et de 51 à 60 mm pour les femelles. Son dos est gris ou gris-verdâtre avec parfois des marbrures sombres. Son ventre et sa gorge sont blancs. La face interne de ses membres sont vert bleuté.
 </t>
@@ -573,7 +589,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les arbres et construit un nid sur des branches surplombant l'eau. Son nid est fait de bulles d'air (à l'origine de son nom vernaculaire anglais : foam-nest tree frog, grenouille arboricole au nid de bulles). Lorsque les larves éclosent, elles tombent dans l'eau où elles poursuivent leur développement.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Günther, 1869 "1868" : First account of species of tailless batrachians added to the collection of the British Museum. Proceedings of the Zoological Society of London, vol. 1868, p. 478-490 (texte intégral).</t>
         </is>
